--- a/va_facility_data_2025-02-20/Brattleboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brattleboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brattleboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brattleboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc2a7efa173b14a158f8ae268e865dc9f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4c1512aae21948f6bd2d0c8dbb2632f2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R184971643a6f44518626f02ed07dbff5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc682ef462be94b5db794009093a5399d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R22b78a77b0414abb860494aa06bb6d0b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7736f86701734e79974692514575297e"/>
   </x:sheets>
 </x:workbook>
 </file>
